--- a/Макеты/ВА_ИмпортExcel_Меркурий_En_En.xlsx
+++ b/Макеты/ВА_ИмпортExcel_Меркурий_En_En.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VA-Tests\VA-Tests-UH32-Budget\Макеты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\РаботаСОшибками\Перформ_ОшибкаЗагрузкиИзЕксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE526F-C726-4D06-84EC-E78BBC37046C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ACF4DF-CF4A-414F-B4E8-976DF0B1FBB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,18 +64,6 @@
     <t>LLC "Io"</t>
   </si>
   <si>
-    <t>Ganymede-001 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Ganymede-002 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Io-001 от 1/1/2021</t>
-  </si>
-  <si>
-    <t>Io-002 от 1/1/2021</t>
-  </si>
-  <si>
     <t>Software products</t>
   </si>
   <si>
@@ -137,6 +125,18 @@
   </si>
   <si>
     <t>Currencies_Description</t>
+  </si>
+  <si>
+    <t>Ganymede-001 dated 1/1/2021</t>
+  </si>
+  <si>
+    <t>Io-001 dated 1/1/2021</t>
+  </si>
+  <si>
+    <t>Ganymede-002 dated 1/1/2021</t>
+  </si>
+  <si>
+    <t>Io-002 dated 1/1/2021</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
   </sheetPr>
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -706,36 +706,36 @@
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -749,22 +749,22 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1009,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1077,19 +1077,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="6">
@@ -1117,19 +1117,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H20"/>
       <c r="I20" s="6">
@@ -1157,19 +1157,19 @@
         <v>13</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H21"/>
       <c r="I21" s="6">
@@ -1197,19 +1197,19 @@
         <v>13</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H22"/>
       <c r="I22" s="6">
@@ -1237,19 +1237,19 @@
         <v>13</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H23"/>
       <c r="I23" s="6">
@@ -1313,19 +1313,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>0</v>
@@ -1355,19 +1355,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>13</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>0</v>
@@ -1439,19 +1439,19 @@
         <v>13</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>0</v>
@@ -1481,19 +1481,19 @@
         <v>13</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>0</v>
